--- a/luno/files/2/user/Webinar/Daily-report-rajat-soni.xlsx
+++ b/luno/files/2/user/Webinar/Daily-report-rajat-soni.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -77,106 +77,31 @@
     <t>Rajat</t>
   </si>
   <si>
-    <t>TGIF</t>
-  </si>
-  <si>
-    <t>resource.itbusinesstoday.com</t>
-  </si>
-  <si>
     <t>NON-EU</t>
   </si>
   <si>
-    <t>Follow up</t>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
-    <t>Unlock Your Growth Potential by Migrating to the Cloud</t>
-  </si>
-  <si>
-    <t>https://resource.itbusinesstoday.com/whitepapers/42284-The-Channel-Company-CPL-1-edm.html</t>
-  </si>
-  <si>
-    <t>How To Optimize Your Business's Cash Management Plan</t>
-  </si>
-  <si>
-    <t>https://resource.itbusinesstoday.com/whitepapers/42522-Forbes-CPL-2nd-1-email.html</t>
-  </si>
-  <si>
-    <t>Leading in the era of generative AI</t>
-  </si>
-  <si>
-    <t>https://resource.itbusinesstoday.com/whitepapers/42656-Forbes-CPL-2nd-1-email.html</t>
-  </si>
-  <si>
-    <t>Le coût de l'inaction</t>
-  </si>
-  <si>
-    <t>https://resource.itbusinesstoday.com/whitepapers/42349-Microsoft-Embedded-FR-1-edm.html</t>
-  </si>
-  <si>
-    <t>La garde du défenseur ; la transformation de la sécurité avec l’IA</t>
-  </si>
-  <si>
-    <t>https://resource.itbusinesstoday.com/whitepapers/42349-Microsoft-Embedded-FR-2-edm.html</t>
-  </si>
-  <si>
-    <t>Trois raisons de passer à la protection intégrée contre les menaces</t>
-  </si>
-  <si>
-    <t>https://resource.itbusinesstoday.com/whitepapers/42349-Microsoft-Embedded-FR-3-edm.html</t>
-  </si>
-  <si>
-    <t>42349 - Microsoft-CPL-Q1-PMG-ABM-Security SMC-Embedded Form-France-XDBS Corp</t>
-  </si>
-  <si>
-    <t>How Mainframe Modernization Begins With Application Modernization</t>
-  </si>
-  <si>
-    <t>https://resource.itbusinesstoday.com/whitepapers/42492-Open-Text-Corporation-CPL-1-edm.html</t>
-  </si>
-  <si>
-    <t>Get cloud-ready: Quick wins on the road to Destination Cloud</t>
-  </si>
-  <si>
-    <t>https://resource.itbusinesstoday.com/whitepapers/42492-Open-Text-Corporation-CPL-2nd-1-email.html</t>
-  </si>
-  <si>
-    <t>42492 - OpenText Inc-CPL-Q1-Double Touch-GL AMC-EMEA-XDBS Corp</t>
-  </si>
-  <si>
-    <t>42284 - The Channel Company-CPL-Q1-ABM-AWS Ensono SMB Reactivation-XDBS Corp</t>
-  </si>
-  <si>
-    <t>42522 - Forbes-CPL-Q4-Q1-First Horizon-Segment B-XDBS Corp</t>
-  </si>
-  <si>
-    <t>42656 - Forbes-CPL-Q1-AWS-Thailand-XDBS Corp</t>
-  </si>
-  <si>
-    <t>Uncover Key Trends Shaping the Future of Physical Operations</t>
-  </si>
-  <si>
-    <t>https://resource.itbusinessplus.com/whitepapers/LP-3121039-JM-Samsara-US-1-edm.html</t>
-  </si>
-  <si>
     <t>https://resource.itbusinessplus.com</t>
   </si>
   <si>
-    <t>Fwd: Alpha - LP_ New Order - 3121039_JM Samsara US</t>
-  </si>
-  <si>
     <t>Alpha</t>
   </si>
   <si>
-    <t>The Power of Time: Healthcare Workforce Optimization Starts with the Schedule</t>
-  </si>
-  <si>
-    <t>https://resource.itbusinessplus.com/whitepapers/LP-3121073-JM-QGenda-US-1-edm.html</t>
-  </si>
-  <si>
-    <t>Fwd: New Order_Alpha_3121073_JM LSC QGenda</t>
+    <t>New order_Alpha_ 3121079.1_1Password_MM/ENT</t>
+  </si>
+  <si>
+    <t>The New Perimeter: Access Management in a Hybrid World</t>
+  </si>
+  <si>
+    <t>https://resource.itbusinessplus.com/whitepapers/LP-3121079.1-1-Password-MMENT-1-edm.html</t>
+  </si>
+  <si>
+    <t>https://resource.itbusinessplus.com/whitepapers/LP-3121079.3-1-Password-SMB-1-edm.html</t>
+  </si>
+  <si>
+    <t>New order_Alpha_3121079.3_1Password_SMB</t>
   </si>
 </sst>
 </file>
@@ -355,7 +280,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="18" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -380,7 +305,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="19" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
@@ -680,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q139"/>
+  <dimension ref="B1:Q131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -691,7 +615,7 @@
     <col min="1" max="1" width="5" style="5" customWidth="1"/>
     <col min="2" max="2" width="13" style="5" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="5" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="5" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" style="5" customWidth="1"/>
@@ -761,25 +685,25 @@
     </row>
     <row r="2" spans="2:17">
       <c r="B2" s="7">
-        <v>45314</v>
+        <v>45315</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="3">
-        <v>42284</v>
+        <v>3121079.1</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>23</v>
@@ -788,10 +712,10 @@
         <v>24</v>
       </c>
       <c r="K2" s="7">
-        <v>45314</v>
+        <v>45315</v>
       </c>
       <c r="L2" s="7">
-        <v>45314</v>
+        <v>45315</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>17</v>
@@ -806,42 +730,42 @@
         <v>16</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" s="7">
-        <v>45314</v>
+        <v>45315</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3121079.3</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="3">
-        <v>42522</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="I3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>26</v>
-      </c>
       <c r="K3" s="7">
-        <v>45314</v>
+        <v>45315</v>
       </c>
       <c r="L3" s="7">
-        <v>45314</v>
+        <v>45315</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>17</v>
@@ -856,408 +780,120 @@
         <v>16</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="7">
-        <v>45314</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3">
-        <v>42656</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="7">
-        <v>45314</v>
-      </c>
-      <c r="L4" s="7">
-        <v>45314</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="B4" s="7"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="4"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="7">
-        <v>45314</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3">
-        <v>42349</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="7">
-        <v>45314</v>
-      </c>
-      <c r="L5" s="7">
-        <v>45314</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="B5" s="7"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="4"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="10"/>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="7">
-        <v>45314</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3">
-        <v>42349</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="7">
-        <v>45314</v>
-      </c>
-      <c r="L6" s="7">
-        <v>45314</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="B6" s="7"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="5"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="4"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="10"/>
     </row>
     <row r="7" spans="2:17">
-      <c r="B7" s="7">
-        <v>45314</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3">
-        <v>42349</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="7">
-        <v>45314</v>
-      </c>
-      <c r="L7" s="7">
-        <v>45314</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="B7" s="7"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="5"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="4"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="10"/>
     </row>
     <row r="8" spans="2:17">
-      <c r="B8" s="7">
-        <v>45314</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="3">
-        <v>42492</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="7">
-        <v>45314</v>
-      </c>
-      <c r="L8" s="7">
-        <v>45314</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="B8" s="7"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="5"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="4"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="10"/>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="7">
-        <v>45314</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3">
-        <v>42492</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="7">
-        <v>45314</v>
-      </c>
-      <c r="L9" s="7">
-        <v>45314</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="B9" s="7"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="4"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="10"/>
     </row>
     <row r="10" spans="2:17">
-      <c r="B10" s="7">
-        <v>45314</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3">
-        <v>3121039</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="7">
-        <v>45314</v>
-      </c>
-      <c r="L10" s="7">
-        <v>45314</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="B10" s="7"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="4"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="10"/>
     </row>
     <row r="11" spans="2:17">
-      <c r="B11" s="7">
-        <v>45314</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3">
-        <v>3121073</v>
-      </c>
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="7">
-        <v>45314</v>
-      </c>
-      <c r="L11" s="7">
-        <v>45314</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="B11" s="7"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="4"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="10"/>
     </row>
     <row r="12" spans="2:17">
       <c r="B12" s="7"/>
@@ -1265,6 +901,7 @@
       <c r="E12" s="5"/>
       <c r="G12" s="9"/>
       <c r="H12" s="4"/>
+      <c r="I12" s="12"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -1377,7 +1014,6 @@
       <c r="E20" s="5"/>
       <c r="G20" s="9"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="12"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
@@ -1587,7 +1223,6 @@
       <c r="D35" s="3"/>
       <c r="E35" s="5"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="4"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
@@ -1601,7 +1236,6 @@
       <c r="D36" s="3"/>
       <c r="E36" s="5"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="4"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
@@ -1615,7 +1249,6 @@
       <c r="D37" s="3"/>
       <c r="E37" s="5"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="4"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
@@ -1629,7 +1262,6 @@
       <c r="D38" s="3"/>
       <c r="E38" s="5"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="4"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
@@ -1643,56 +1275,52 @@
       <c r="D39" s="3"/>
       <c r="E39" s="5"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="4"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
-      <c r="Q39" s="10"/>
+      <c r="Q39" s="8"/>
     </row>
     <row r="40" spans="2:17">
       <c r="B40" s="7"/>
       <c r="D40" s="3"/>
       <c r="E40" s="5"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="4"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
       <c r="P40" s="7"/>
-      <c r="Q40" s="10"/>
+      <c r="Q40" s="8"/>
     </row>
     <row r="41" spans="2:17">
       <c r="B41" s="7"/>
       <c r="D41" s="3"/>
       <c r="E41" s="5"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="4"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
-      <c r="Q41" s="10"/>
+      <c r="Q41" s="8"/>
     </row>
     <row r="42" spans="2:17">
       <c r="B42" s="7"/>
       <c r="D42" s="3"/>
       <c r="E42" s="5"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="4"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
-      <c r="Q42" s="10"/>
+      <c r="Q42" s="8"/>
     </row>
     <row r="43" spans="2:17">
       <c r="B43" s="7"/>
@@ -1705,7 +1333,7 @@
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
-      <c r="Q43" s="10"/>
+      <c r="Q43" s="8"/>
     </row>
     <row r="44" spans="2:17">
       <c r="B44" s="7"/>
@@ -1718,7 +1346,7 @@
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
-      <c r="Q44" s="10"/>
+      <c r="Q44" s="8"/>
     </row>
     <row r="45" spans="2:17">
       <c r="B45" s="7"/>
@@ -1731,7 +1359,7 @@
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
-      <c r="Q45" s="10"/>
+      <c r="Q45" s="8"/>
     </row>
     <row r="46" spans="2:17">
       <c r="B46" s="7"/>
@@ -1744,13 +1372,14 @@
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
-      <c r="Q46" s="10"/>
+      <c r="Q46" s="8"/>
     </row>
     <row r="47" spans="2:17">
       <c r="B47" s="7"/>
       <c r="D47" s="3"/>
       <c r="E47" s="5"/>
       <c r="G47" s="9"/>
+      <c r="J47" s="11"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
@@ -1855,7 +1484,6 @@
       <c r="D55" s="3"/>
       <c r="E55" s="5"/>
       <c r="G55" s="9"/>
-      <c r="J55" s="11"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
@@ -2284,7 +1912,9 @@
       <c r="B88" s="7"/>
       <c r="D88" s="3"/>
       <c r="E88" s="5"/>
+      <c r="F88" s="9"/>
       <c r="G88" s="9"/>
+      <c r="J88" s="11"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
@@ -2297,7 +1927,9 @@
       <c r="B89" s="7"/>
       <c r="D89" s="3"/>
       <c r="E89" s="5"/>
+      <c r="F89" s="9"/>
       <c r="G89" s="9"/>
+      <c r="I89" s="13"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
@@ -2309,8 +1941,9 @@
     <row r="90" spans="2:17">
       <c r="B90" s="7"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="5"/>
+      <c r="E90" s="14"/>
       <c r="G90" s="9"/>
+      <c r="J90" s="11"/>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
@@ -2322,7 +1955,7 @@
     <row r="91" spans="2:17">
       <c r="B91" s="7"/>
       <c r="D91" s="3"/>
-      <c r="E91" s="5"/>
+      <c r="E91" s="14"/>
       <c r="G91" s="9"/>
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
@@ -2335,7 +1968,7 @@
     <row r="92" spans="2:17">
       <c r="B92" s="7"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="5"/>
+      <c r="E92" s="14"/>
       <c r="G92" s="9"/>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
@@ -2350,6 +1983,7 @@
       <c r="D93" s="3"/>
       <c r="E93" s="5"/>
       <c r="G93" s="9"/>
+      <c r="J93" s="11"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
@@ -2363,6 +1997,7 @@
       <c r="D94" s="3"/>
       <c r="E94" s="5"/>
       <c r="G94" s="9"/>
+      <c r="J94" s="11"/>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
@@ -2376,6 +2011,7 @@
       <c r="D95" s="3"/>
       <c r="E95" s="5"/>
       <c r="G95" s="9"/>
+      <c r="J95" s="11"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
@@ -2388,9 +2024,7 @@
       <c r="B96" s="7"/>
       <c r="D96" s="3"/>
       <c r="E96" s="5"/>
-      <c r="F96" s="9"/>
       <c r="G96" s="9"/>
-      <c r="J96" s="11"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
@@ -2399,145 +2033,67 @@
       <c r="P96" s="7"/>
       <c r="Q96" s="8"/>
     </row>
-    <row r="97" spans="2:17">
-      <c r="B97" s="7"/>
+    <row r="97" spans="4:5">
       <c r="D97" s="3"/>
       <c r="E97" s="5"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="I97" s="13"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="7"/>
-      <c r="M97" s="7"/>
-      <c r="N97" s="7"/>
-      <c r="O97" s="7"/>
-      <c r="P97" s="7"/>
-      <c r="Q97" s="8"/>
-    </row>
-    <row r="98" spans="2:17">
-      <c r="B98" s="7"/>
+    </row>
+    <row r="98" spans="4:5">
       <c r="D98" s="3"/>
-      <c r="E98" s="14"/>
-      <c r="G98" s="9"/>
-      <c r="J98" s="11"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="7"/>
-      <c r="M98" s="7"/>
-      <c r="N98" s="7"/>
-      <c r="O98" s="7"/>
-      <c r="P98" s="7"/>
-      <c r="Q98" s="8"/>
-    </row>
-    <row r="99" spans="2:17">
-      <c r="B99" s="7"/>
+      <c r="E98" s="5"/>
+    </row>
+    <row r="99" spans="4:5">
       <c r="D99" s="3"/>
-      <c r="E99" s="14"/>
-      <c r="G99" s="9"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="7"/>
-      <c r="M99" s="7"/>
-      <c r="N99" s="7"/>
-      <c r="O99" s="7"/>
-      <c r="P99" s="7"/>
-      <c r="Q99" s="8"/>
-    </row>
-    <row r="100" spans="2:17">
-      <c r="B100" s="7"/>
+      <c r="E99" s="5"/>
+    </row>
+    <row r="100" spans="4:5">
       <c r="D100" s="3"/>
-      <c r="E100" s="14"/>
-      <c r="G100" s="9"/>
-      <c r="K100" s="7"/>
-      <c r="L100" s="7"/>
-      <c r="M100" s="7"/>
-      <c r="N100" s="7"/>
-      <c r="O100" s="7"/>
-      <c r="P100" s="7"/>
-      <c r="Q100" s="8"/>
-    </row>
-    <row r="101" spans="2:17">
-      <c r="B101" s="7"/>
+      <c r="E100" s="5"/>
+    </row>
+    <row r="101" spans="4:5">
       <c r="D101" s="3"/>
       <c r="E101" s="5"/>
-      <c r="G101" s="9"/>
-      <c r="J101" s="11"/>
-      <c r="K101" s="7"/>
-      <c r="L101" s="7"/>
-      <c r="M101" s="7"/>
-      <c r="N101" s="7"/>
-      <c r="O101" s="7"/>
-      <c r="P101" s="7"/>
-      <c r="Q101" s="8"/>
-    </row>
-    <row r="102" spans="2:17">
-      <c r="B102" s="7"/>
+    </row>
+    <row r="102" spans="4:5">
       <c r="D102" s="3"/>
       <c r="E102" s="5"/>
-      <c r="G102" s="9"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="7"/>
-      <c r="L102" s="7"/>
-      <c r="M102" s="7"/>
-      <c r="N102" s="7"/>
-      <c r="O102" s="7"/>
-      <c r="P102" s="7"/>
-      <c r="Q102" s="8"/>
-    </row>
-    <row r="103" spans="2:17">
-      <c r="B103" s="7"/>
+    </row>
+    <row r="103" spans="4:5">
       <c r="D103" s="3"/>
       <c r="E103" s="5"/>
-      <c r="G103" s="9"/>
-      <c r="J103" s="11"/>
-      <c r="K103" s="7"/>
-      <c r="L103" s="7"/>
-      <c r="M103" s="7"/>
-      <c r="N103" s="7"/>
-      <c r="O103" s="7"/>
-      <c r="P103" s="7"/>
-      <c r="Q103" s="8"/>
-    </row>
-    <row r="104" spans="2:17">
-      <c r="B104" s="7"/>
+    </row>
+    <row r="104" spans="4:5">
       <c r="D104" s="3"/>
       <c r="E104" s="5"/>
-      <c r="G104" s="9"/>
-      <c r="K104" s="7"/>
-      <c r="L104" s="7"/>
-      <c r="M104" s="7"/>
-      <c r="N104" s="7"/>
-      <c r="O104" s="7"/>
-      <c r="P104" s="7"/>
-      <c r="Q104" s="8"/>
-    </row>
-    <row r="105" spans="2:17">
+    </row>
+    <row r="105" spans="4:5">
       <c r="D105" s="3"/>
       <c r="E105" s="5"/>
     </row>
-    <row r="106" spans="2:17">
+    <row r="106" spans="4:5">
       <c r="D106" s="3"/>
       <c r="E106" s="5"/>
     </row>
-    <row r="107" spans="2:17">
+    <row r="107" spans="4:5">
       <c r="D107" s="3"/>
       <c r="E107" s="5"/>
     </row>
-    <row r="108" spans="2:17">
+    <row r="108" spans="4:5">
       <c r="D108" s="3"/>
       <c r="E108" s="5"/>
     </row>
-    <row r="109" spans="2:17">
+    <row r="109" spans="4:5">
       <c r="D109" s="3"/>
       <c r="E109" s="5"/>
     </row>
-    <row r="110" spans="2:17">
+    <row r="110" spans="4:5">
       <c r="D110" s="3"/>
       <c r="E110" s="5"/>
     </row>
-    <row r="111" spans="2:17">
+    <row r="111" spans="4:5">
       <c r="D111" s="3"/>
       <c r="E111" s="5"/>
     </row>
-    <row r="112" spans="2:17">
+    <row r="112" spans="4:5">
       <c r="D112" s="3"/>
       <c r="E112" s="5"/>
     </row>
@@ -2617,44 +2173,9 @@
       <c r="D131" s="3"/>
       <c r="E131" s="5"/>
     </row>
-    <row r="132" spans="4:5">
-      <c r="D132" s="3"/>
-      <c r="E132" s="5"/>
-    </row>
-    <row r="133" spans="4:5">
-      <c r="D133" s="3"/>
-      <c r="E133" s="5"/>
-    </row>
-    <row r="134" spans="4:5">
-      <c r="D134" s="3"/>
-      <c r="E134" s="5"/>
-    </row>
-    <row r="135" spans="4:5">
-      <c r="D135" s="3"/>
-      <c r="E135" s="5"/>
-    </row>
-    <row r="136" spans="4:5">
-      <c r="D136" s="3"/>
-      <c r="E136" s="5"/>
-    </row>
-    <row r="137" spans="4:5">
-      <c r="D137" s="3"/>
-      <c r="E137" s="5"/>
-    </row>
-    <row r="138" spans="4:5">
-      <c r="D138" s="3"/>
-      <c r="E138" s="5"/>
-    </row>
-    <row r="139" spans="4:5">
-      <c r="D139" s="3"/>
-      <c r="E139" s="5"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="J10" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
